--- a/Visualistion/skills_a.xlsx
+++ b/Visualistion/skills_a.xlsx
@@ -540,7 +540,7 @@
         <v>0.3612727285299553</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.003747178994171985</v>
+        <v>0.003747180713683407</v>
       </c>
       <c r="G2" t="n">
         <v>0.1905828875392953</v>
@@ -592,7 +592,7 @@
         <v>0.4266370126436603</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.481649280381485</v>
+        <v>-6.153331363488107</v>
       </c>
       <c r="G3" t="n">
         <v>0.205315597453252</v>
@@ -644,7 +644,7 @@
         <v>0.3804004915327179</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.791658124596665</v>
+        <v>-8.791659831232289</v>
       </c>
       <c r="G4" t="n">
         <v>-0.2451979287250621</v>
@@ -696,7 +696,7 @@
         <v>0.4360486552467717</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.429054562487722</v>
+        <v>-6.429055857333703</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0.2072121390852771</v>
